--- a/images/skip_meal_after_all.xlsx
+++ b/images/skip_meal_after_all.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
   <si>
-    <t xml:space="preserve">skip_meal_after</t>
+    <t xml:space="preserve">women_power</t>
   </si>
   <si>
     <t xml:space="preserve">proportion</t>
@@ -44,31 +44,13 @@
     <t xml:space="preserve">Enonkishu</t>
   </si>
   <si>
-    <t xml:space="preserve">Never</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only a few days in the worst months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some days in every month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some days in every week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbokishi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ol Chorro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do not want to answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside</t>
+    <t xml:space="preserve">Disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
   </si>
 </sst>
 </file>
@@ -437,430 +419,82 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.27154675979504</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.839564351316071</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>7.33176251446607</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>22.6682374855339</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="n">
-        <v>0.777777777777778</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.690042750844103</v>
+        <v>-0.0153965843746817</v>
       </c>
       <c r="E3" t="n">
-        <v>0.865512804711453</v>
+        <v>0.459841028819126</v>
       </c>
       <c r="F3" t="n">
-        <v>165.666648</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>136.716006655985</v>
+        <v>-0.415707778116409</v>
       </c>
       <c r="H3" t="n">
-        <v>194.617289344015</v>
+        <v>12.4157077781164</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126984126984127</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0567194111638454</v>
+        <v>-0.0153965843746817</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197248842804409</v>
+        <v>0.459841028819126</v>
       </c>
       <c r="F4" t="n">
-        <v>27.047616</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>11.6520026267737</v>
+        <v>-0.415707778116409</v>
       </c>
       <c r="H4" t="n">
-        <v>42.4432293732263</v>
+        <v>12.4157077781164</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0634920634920635</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0120323981688937</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.114951728815233</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.523808</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.41527222165431</v>
-      </c>
-      <c r="H5" t="n">
-        <v>24.6323437783457</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0317460317460317</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.00525304365074492</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0687451071428084</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.761904</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-1.17040723077353</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14.6942152307735</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.478260869565217</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.303792383856355</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.65272935527408</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22.956527</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11.9866716537678</v>
-      </c>
-      <c r="H7" t="n">
-        <v>33.9263823462322</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.173913043478261</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0415286402033113</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.30629744675321</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.347828</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.49087276893816</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15.2047832310618</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.0277482001608968</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.114704721900027</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.086957</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1.3920660093531</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.5659800093531</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.304347826086957</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.143639255842062</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.465056396331851</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14.608699</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.67353168508682</v>
-      </c>
-      <c r="H10" t="n">
-        <v>23.5438663149132</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0526315789473684</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.0331763917263972</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.138439549621134</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.263158</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-3.510692052426</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14.037008052426</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.947368421052632</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.861560450378866</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.0331763917264</v>
-      </c>
-      <c r="F12" t="n">
-        <v>94.736844</v>
-      </c>
-      <c r="G12" t="n">
-        <v>60.690583549824</v>
-      </c>
-      <c r="H12" t="n">
-        <v>128.783104450176</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.454545454545455</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.217787643393739</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.69130326569717</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11.81818</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.66247785708665</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.9738821429134</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.00157363011684103</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.365209993753205</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.727272</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.0409143767433475</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9.49545837674335</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.00157363011684103</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.365209993753205</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.727272</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.0409143767433475</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.49545837674335</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.00157363011684103</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.365209993753205</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.727272</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.0409143767433475</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9.49545837674335</v>
-      </c>
-      <c r="I16" t="n">
         <v>2</v>
       </c>
     </row>
